--- a/Documentation/Testing V2.xlsx
+++ b/Documentation/Testing V2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zed\Desktop\SOFT564Z-CW\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AFB5A8-6774-4ABF-81EC-C1DC3AFBA801}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19990F29-56A6-4218-AFC2-7E31118EE8EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="93">
   <si>
     <t>Unit</t>
   </si>
@@ -48,18 +48,6 @@
     <t>Responsible for executing code that will attempt connection to the server on click. After clicking the connect button, pattern of ip address input is verified before the connection attempt to ensure it is correct.</t>
   </si>
   <si>
-    <t>Executes code to connect to the buggy selected from the listbox.</t>
-  </si>
-  <si>
-    <t>Executes code to disconnect from the connected buggy.</t>
-  </si>
-  <si>
-    <t>Successfully connects to the buggy without any problems occurring.</t>
-  </si>
-  <si>
-    <t>Successfully disconnects from the buggy without any problems occuring.</t>
-  </si>
-  <si>
     <t>connected to buggy</t>
   </si>
   <si>
@@ -70,12 +58,6 @@
   </si>
   <si>
     <t>Connection Lost</t>
-  </si>
-  <si>
-    <t>Displays a message based on the status of the connection to the buggy. There are five types of messages that can be displayed depending on the situation. On successful connection, the controller client displays "Connected to buggy". If buggy is in use: "buggy is used by another client". On failure to connect: "Failed to connect to buggy". on loss of connection: "Connection lost". On sucessfull disconnection: "disconnected". Each condition will be presented to the controller to see how it responds.</t>
-  </si>
-  <si>
-    <t>Appropriate message should be displayed based on the presented condition.</t>
   </si>
   <si>
     <t>Used to select the interaction mode between the buggy and the controller client by the user. The controller client only enables controls associated with the chosen interaction mode.</t>
@@ -279,6 +261,87 @@
     <t xml:space="preserve">Successful connection - Units Enabled
 Failure to connect - Units disabled
 </t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>When a disconnection from the server occurs, the controller client GUI should disable all of the buggy controls to prevent the controller client from taking any action while not connected to the server. The controls that allow the usuer to connected to the server should be enabled to allow the user to try to connect back to the server.</t>
+  </si>
+  <si>
+    <t>1. Buggy controls are disabled
+2. Connect to server button is enabled
+3. Controller client disconnects from the buggy automatically.
+4. Connection status should display "Disconnected"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server Disconnection </t>
+  </si>
+  <si>
+    <t>Buggy Connection</t>
+  </si>
+  <si>
+    <t>Buggy connection button
+Buggy status textbox</t>
+  </si>
+  <si>
+    <t>Buggy interaction mode combo box</t>
+  </si>
+  <si>
+    <t>check whether the combo box will enable on scucessful connection to a buggy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful connection - Combo box enabled
+Unscuccessful connection - Combo box disabled
+</t>
+  </si>
+  <si>
+    <t>Displays a message based on the status of the connection to the buggy. There are four types of messages that can be displayed depending on the situation. On successful connection, the controller client displays "Connected to buggy". If buggy is in use: "buggy is used by another client".  On loss of connection or failure to connect: "Disconnected".  If the user does not select a buggy to connect to: "Select a buggy to connect to".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful Connection - Connected to buggy
+Buggy used - Buggy is used by another client
+Connection loss or inability to connect - Disconnected
+Did not select a buggy - Select a buggy to connect to
+</t>
+  </si>
+  <si>
+    <t>Buggy Disconnection</t>
+  </si>
+  <si>
+    <t>All buggy controls</t>
+  </si>
+  <si>
+    <t>Buggy Connect and Disconnect buttons</t>
+  </si>
+  <si>
+    <t>chekcs whether the buttons are appropriately disabled/enabled  on connection to a buggy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful connection - connect button disabled and disconnect button enabled.
+Unsuccessful connection - connect button enabled and disconnect button disabled
+</t>
+  </si>
+  <si>
+    <t>Upon disconnecting from the buggy the buggy controls apart from the buggy connection button, the status textbox and the available clients listbox should be disabled to prevent the user from generating buggy requests.</t>
+  </si>
+  <si>
+    <t>The following should be enabled only in the buggy controls:
+buggy connect button
+buggy status textbox
+available clients listbox</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Tests whether the buggy stops moving when the controller client disconnects while the buggy is set to function in 'Atuonomous Mode'</t>
+  </si>
+  <si>
+    <t>Buggy stops moving (stops autonomous mode) when controller clients disconnects from the buggy.</t>
+  </si>
+  <si>
+    <t>Picking Interaction Mode</t>
   </si>
 </sst>
 </file>
@@ -368,7 +431,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,14 +715,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="70.5703125" customWidth="1"/>
     <col min="4" max="4" width="42.85546875" customWidth="1"/>
     <col min="5" max="5" width="39.7109375" customWidth="1"/>
@@ -670,7 +733,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -692,23 +755,23 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="168" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>59</v>
+      <c r="A2" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G2" s="6">
         <v>44201</v>
@@ -716,342 +779,395 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>59</v>
+      <c r="A3" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G3" s="5">
         <v>44201</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G4" s="5">
         <v>44201</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>59</v>
+      <c r="A5" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G5" s="5">
         <v>44201</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>59</v>
+      <c r="A6" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G6" s="5">
         <v>44201</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>59</v>
+      <c r="A7" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G7" s="5">
         <v>44201</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>71</v>
+      <c r="A8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G8" s="5">
         <v>44201</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="9" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>10</v>
-      </c>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="2:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="D28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="3:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="C29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="3:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="C30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="3:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="C34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="C36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="2:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="2:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1078,25 +1194,25 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E46" s="4"/>
       <c r="H46" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E47" s="4"/>
       <c r="H47" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E48" s="4"/>
       <c r="H48" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E49" s="4"/>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="5:8" x14ac:dyDescent="0.25">

--- a/Documentation/Testing V2.xlsx
+++ b/Documentation/Testing V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zed\Desktop\SOFT564Z-CW\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19990F29-56A6-4218-AFC2-7E31118EE8EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446893D9-8B7D-4CA5-B5AB-FE20E3742B7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="99">
   <si>
     <t>Unit</t>
   </si>
@@ -342,6 +342,34 @@
   </si>
   <si>
     <t>Picking Interaction Mode</t>
+  </si>
+  <si>
+    <t>Interaction Mode Combo Box
+Manual Control Focus button
+Configuration Controls
+Greenhouse data controls</t>
+  </si>
+  <si>
+    <t>Tests whether appropriate controls will enable/disable when an interaction mode is selected.</t>
+  </si>
+  <si>
+    <t>Tests whether the buggy goes into autonomous mode when the mode is selected and stops when another mode is selected</t>
+  </si>
+  <si>
+    <t>Buggy goes into autonomous mode when the mode is selected and stops working in autonomous mode when another interaction mode is selected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual Mode:
+- Control Focus Button enabled
+- Controls under greenhouse data section on the gui enabled.
+Configuration Mode:
+- Configuration controls enabled
+Autonomous Mode:
+None of the Manual, Configuration or Greenhouse data controls are enabled
+</t>
+  </si>
+  <si>
+    <t>Controlling buggy in Manual Mode</t>
   </si>
 </sst>
 </file>
@@ -715,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,39 +1028,65 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" s="3"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
         <v>11</v>
       </c>
@@ -1041,7 +1095,7 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
         <v>13</v>
       </c>
@@ -1050,7 +1104,7 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
         <v>14</v>
       </c>
@@ -1059,7 +1113,7 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
         <v>15</v>
       </c>
@@ -1068,7 +1122,7 @@
       </c>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
         <v>16</v>
       </c>
@@ -1077,7 +1131,7 @@
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="3:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
         <v>23</v>
       </c>
@@ -1086,7 +1140,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="3:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
         <v>29</v>
       </c>
@@ -1095,7 +1149,7 @@
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="3:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
         <v>25</v>
       </c>
@@ -1104,7 +1158,7 @@
       </c>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
         <v>27</v>
       </c>

--- a/Documentation/Testing V2.xlsx
+++ b/Documentation/Testing V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zed\Desktop\SOFT564Z-CW\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zbign\Documents\GitHub\SOFT564Z-CW\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446893D9-8B7D-4CA5-B5AB-FE20E3742B7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F229F8C-72AD-4BAE-B106-AA1568F9EE6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="113">
   <si>
     <t>Unit</t>
   </si>
@@ -370,6 +370,85 @@
   </si>
   <si>
     <t>Controlling buggy in Manual Mode</t>
+  </si>
+  <si>
+    <t>Tests whether the buggy resonds to motion commands properly. Keyboard keys WASD are used to move the buggy. Combining the keys makes the buggy move in specific ways.
+                //Combinations of the keys meaning
+                //1111 = left, right, reverse, forward (ADSW KEYS)
+                //0000      no motion
+                //0001      forward
+                //0010      reverse
+                //0011      reverse &amp; forward = no motion
+                //0100      right = rotate clockwise
+                //0101      forward and right = turn right
+                //0110      reverse and right = reverse right
+                //0111      forward, reverse and right = rotate clockwise
+                //1000      left = rotate anti-clockwise
+                //1001      forward and left = turn left;
+                //1010      reverse and left = reverse left;
+                //1011      forward, reverse and left = rotate anti-clockwise
+                //1100      left and right = no motion
+                //1101      left right and forward = forward
+                //1110      left, right, reverse = reverse
+                //1111      no motion</t>
+  </si>
+  <si>
+    <t>Combining the motion keys should produce motion according to the table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000 =
+0001 = 
+0010 = 
+0011 = 
+0100 = 
+0101 = 
+0110 =
+0111 = 
+1000 =
+1001 = 
+1010 =
+1011 = 
+1100 = 
+1101 = 
+1110 = 
+1111 = </t>
+  </si>
+  <si>
+    <t>Controlling buggy motion</t>
+  </si>
+  <si>
+    <t>Tests whether pressing the motion keys is "Ignored" when not in manual mode.</t>
+  </si>
+  <si>
+    <t>Use should not be able tomove the buggy by pressing the keys when manual interaction mode is not selected.</t>
+  </si>
+  <si>
+    <t>Requesting Environmental information in manual mode</t>
+  </si>
+  <si>
+    <t>Greenhouse data controls</t>
+  </si>
+  <si>
+    <t>Tests whether the buggy will send back environmental data when "Request Data" button is pressed.</t>
+  </si>
+  <si>
+    <t>When button is pressed the buggy should send back environmental data and display it in appropriate textboxes.
+Temperature in temperature textbox
+humidity in humidity textbox
+light intensity in the light intensity textbox</t>
+  </si>
+  <si>
+    <t>Picking a configuration option in configuration mode</t>
+  </si>
+  <si>
+    <t>Configuration Combo Box
+Current configuration texbox</t>
+  </si>
+  <si>
+    <t>Tests whether the buggy will send back current configuration parameters for the selected configuration option</t>
+  </si>
+  <si>
+    <t>The buggy will send the current configuration parameter back to the controller client which will be displayed in the current configuration textbox.</t>
   </si>
 </sst>
 </file>
@@ -743,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,19 +1135,66 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">

--- a/Documentation/Testing V2.xlsx
+++ b/Documentation/Testing V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zbign\Documents\GitHub\SOFT564Z-CW\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F229F8C-72AD-4BAE-B106-AA1568F9EE6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A7D809-C307-490D-A0DE-6F1607AB5BBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="113">
   <si>
     <t>Unit</t>
   </si>
@@ -60,48 +60,12 @@
     <t>Connection Lost</t>
   </si>
   <si>
-    <t>Used to select the interaction mode between the buggy and the controller client by the user. The controller client only enables controls associated with the chosen interaction mode.</t>
-  </si>
-  <si>
-    <t>Only controls associated with the selected interaction mode should be enabled.</t>
-  </si>
-  <si>
-    <t>Used to move the buggy forward when pressed and stop the buggy moving forward when de-pressed.</t>
-  </si>
-  <si>
-    <t>Used to move the buggy backwards when pressed and stop the buggy moving backwards when de-pressed.</t>
-  </si>
-  <si>
-    <t>Used to rotate the buggy clockwise when pressed and stop the buggy rotationg clockwise when de-pressed.</t>
-  </si>
-  <si>
-    <t>Used to rotate the buggy anti-clockwise when pressed and stop the buggy rotationg anti-clockwise when de-pressed.</t>
-  </si>
-  <si>
-    <t>buggy moves forward when button is pressed and stops when button de-pressed.</t>
-  </si>
-  <si>
-    <t>buggy moves backward when button is pressed and stops when button de-pressed.</t>
-  </si>
-  <si>
-    <t>buggy rotates closkwise when button pressed and stops when button de-pressed.</t>
-  </si>
-  <si>
-    <t>buggy rotates anti-closkwise when button pressed and stops when button de-pressed.</t>
-  </si>
-  <si>
     <t>Buggy starts operating without any user intervention or input.</t>
   </si>
   <si>
     <t>When this mode is selected code is executed to request that the buggy starts autonomous operation.</t>
   </si>
   <si>
-    <t>Used to select the one of the configuration options available for the buggy. When an option is selected, the combo box is resposnible for executing code that will cause the current configuration parameters for that option to be displayed in the 'current' configuration textbox. Additionally, selecting an option will enable other asscociated textboxes and buttons to allow the option to be configured and ultimately allow the buggy to be updated with the new parameters.</t>
-  </si>
-  <si>
-    <t>When an option is selected the current configuration parameters for that option are displayed and inputs for that that allow the option to be configured will be enabled.</t>
-  </si>
-  <si>
     <t>Textbox used to input new configuration values for the selected option. This input should only accept numerical values so that correct configuration values are sent. The textbox will also only allow values of certain ranges depending on the configuration option.</t>
   </si>
   <si>
@@ -112,12 +76,6 @@
   </si>
   <si>
     <t>On successful update textbox will display "Success" otherwise it will display "Failed".</t>
-  </si>
-  <si>
-    <t>Displays the current configuration values for the selected option. The textbox is read only. Additionally, when the buggy is updated with new parameters, the new parameters will be displayed.</t>
-  </si>
-  <si>
-    <t>When an option is selected, the current configuration values are displated and when no otpion is selected, the textbox is clear. Also, when the parameters are sucessfully updated, updated parameters should be displayed.</t>
   </si>
   <si>
     <t>Executes code to update the buggy with the new parameters .</t>
@@ -449,6 +407,48 @@
   </si>
   <si>
     <t>The buggy will send the current configuration parameter back to the controller client which will be displayed in the current configuration textbox.</t>
+  </si>
+  <si>
+    <t>Updating the configuration option with new parameter</t>
+  </si>
+  <si>
+    <t>Configuration controls</t>
+  </si>
+  <si>
+    <t>Tests whether the buggy parameters will be updated with the new configuration option parameters selected.</t>
+  </si>
+  <si>
+    <t>Displaying all conguration parameters</t>
+  </si>
+  <si>
+    <t>tests whether all the configuration parameters will be displayed (one by one) when the options are selected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuration parameters for each option will be displayed successfully </t>
+  </si>
+  <si>
+    <t>The buggy should send back a response back to the controller client when the update is successful and the "ok" message should be displayed in the status textbox. When the configuration option is selected again, the current configuration parameter that is sent back to the controller client should be the value that the user selected previously. It should be possible to update all options.</t>
+  </si>
+  <si>
+    <t>Autonomous Mode Sending back environmental data</t>
+  </si>
+  <si>
+    <t>Greenhouse data textboxes</t>
+  </si>
+  <si>
+    <t>Tests whether the environmental data is periodically sent back to the user and displayed in the greenhouse data textboxes.</t>
+  </si>
+  <si>
+    <t>Periodically displays updated environmental data.</t>
+  </si>
+  <si>
+    <t>Buggy will take a path that has more light intensity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tests whether the buggy takes the path that has more light intensity. One of the LDRs will be exposed to light to see if the buggy will turn towards the light source. </t>
+  </si>
+  <si>
+    <t>Autonomous Mode buggy movement algorithm</t>
   </si>
 </sst>
 </file>
@@ -822,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,7 +840,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -863,22 +863,22 @@
     </row>
     <row r="2" spans="1:8" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G2" s="6">
         <v>44201</v>
@@ -887,22 +887,22 @@
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G3" s="5">
         <v>44201</v>
@@ -910,22 +910,22 @@
     </row>
     <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G4" s="5">
         <v>44201</v>
@@ -933,22 +933,22 @@
     </row>
     <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G5" s="5">
         <v>44201</v>
@@ -956,22 +956,22 @@
     </row>
     <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G6" s="5">
         <v>44201</v>
@@ -979,22 +979,22 @@
     </row>
     <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G7" s="5">
         <v>44201</v>
@@ -1002,22 +1002,22 @@
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G8" s="5">
         <v>44201</v>
@@ -1025,328 +1025,340 @@
     </row>
     <row r="9" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="3"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="3"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>17</v>
-      </c>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>18</v>
-      </c>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>19</v>
-      </c>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>20</v>
-      </c>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="C29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
-      </c>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="C30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>30</v>
-      </c>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E38" s="4"/>
     </row>

--- a/Documentation/Testing V2.xlsx
+++ b/Documentation/Testing V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zbign\Documents\GitHub\SOFT564Z-CW\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zed\Desktop\SOFT564Z-CW\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A7D809-C307-490D-A0DE-6F1607AB5BBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A756F959-220A-4220-8079-4F4BF6862FE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="100">
   <si>
     <t>Unit</t>
   </si>
@@ -46,69 +46,6 @@
   </si>
   <si>
     <t>Responsible for executing code that will attempt connection to the server on click. After clicking the connect button, pattern of ip address input is verified before the connection attempt to ensure it is correct.</t>
-  </si>
-  <si>
-    <t>connected to buggy</t>
-  </si>
-  <si>
-    <t>Buggy is used by another client</t>
-  </si>
-  <si>
-    <t>Failed to connect to buggy</t>
-  </si>
-  <si>
-    <t>Connection Lost</t>
-  </si>
-  <si>
-    <t>Buggy starts operating without any user intervention or input.</t>
-  </si>
-  <si>
-    <t>When this mode is selected code is executed to request that the buggy starts autonomous operation.</t>
-  </si>
-  <si>
-    <t>Textbox used to input new configuration values for the selected option. This input should only accept numerical values so that correct configuration values are sent. The textbox will also only allow values of certain ranges depending on the configuration option.</t>
-  </si>
-  <si>
-    <t>non numerical input or out of range input will cause the update button to disable.</t>
-  </si>
-  <si>
-    <t>The status textbox is read only and displays the update status of the buggy. If the successfully configured, the status textbox will display "Success" if not then it will display "Failed".</t>
-  </si>
-  <si>
-    <t>On successful update textbox will display "Success" otherwise it will display "Failed".</t>
-  </si>
-  <si>
-    <t>Executes code to update the buggy with the new parameters .</t>
-  </si>
-  <si>
-    <t>The code should execute causing appropriate changes to occur.</t>
-  </si>
-  <si>
-    <t>This textbox is readonly and displays the temperature data from the buggy. In manual interaction mode, the new data will display when the 'Request Data' button is pressed. In autonomous mode, the data will be displayed periodically.</t>
-  </si>
-  <si>
-    <t>This textbox is readonly and displays the humidity data from the buggy. In manual interaction mode, the new data will display when the 'Request Data' button is pressed. In autonomous mode, the data will be displayed periodically.</t>
-  </si>
-  <si>
-    <t>The temperature textbox should display temperature correctly in both interaction modes.</t>
-  </si>
-  <si>
-    <t>The humidity textbox should display humidity correctly in both interaction modes.</t>
-  </si>
-  <si>
-    <t>This textbox is readonly and displays the light intensity data from the buggy. In manual interaction mode, the new data will display when the 'Request Data' button is pressed. In autonomous mode, the data will be displayed periodically.</t>
-  </si>
-  <si>
-    <t>The light intesnity textbox should display light intesnity correctly in both interaction modes.</t>
-  </si>
-  <si>
-    <t>Executes code to request temperature, humidity and light intensity data from the buggy on click.</t>
-  </si>
-  <si>
-    <t>Request scuccessfully should be delivered to the request queue and sent to the buggy.</t>
-  </si>
-  <si>
-    <t>Request Handler</t>
   </si>
   <si>
     <t>Connection attempt should not be started and appropriate message should be displayed in the status text box if the IP address is invalid.
@@ -449,6 +386,38 @@
   </si>
   <si>
     <t>Autonomous Mode buggy movement algorithm</t>
+  </si>
+  <si>
+    <t>Tests whether the buggy will detect obstacles using the ultrasonic module and attempt to make a decision on which way to go to avoid the obstacle. There are a few factors that affect the buggy's decision on which way to go.
+1. The buggy looks both ways to see if the left or right side is blocked and the buggy will go in the direction that is not blocked. If both sides are blocked the buggy will reverse and turn left.
+2. If one of the sides is blocked, the buggy will choose to go the other way.
+3. if both sides are free, the side that has higher light intensity will be chosen by the buggy.
+4. If light intensity is equal, and there is no obstacle on either left or right side, the buggy will choose the left side by default.</t>
+  </si>
+  <si>
+    <t>Obstacle in front of buggy - Buggy will turn the ultrasonic module left and right to see if there are any obstacles
+Obstacle to the left and right - Buggy reverses and turns left.
+Obstacle on one side - Buggy picks the side that is obstacle free.
+Both sides obstacle free - Buggy picks the side with higher light intensity.
+Both sides obstacle free and equal light intensity - Buggy picks left side by default.</t>
+  </si>
+  <si>
+    <t>Controller client disconnecting from buggy and another client connecting to buggy</t>
+  </si>
+  <si>
+    <t>Tests whether another client can connect to the buggy after another client has disconnected from the buggy. This test will verify whether the sever does the work to mark the controller client that used the buggy and the buggy that was used by the controller client as not connected to each other so that other users can use the buggy.</t>
+  </si>
+  <si>
+    <t>Upon one client disconnecting from the buggy, the other controller client should be able to connect to the buggy and use it.</t>
+  </si>
+  <si>
+    <t>Multiple Buggies and controller clients on the network</t>
+  </si>
+  <si>
+    <t>Tests the system to see if multiple controller clients can connect to buggies on the network and control them.</t>
+  </si>
+  <si>
+    <t>System allows multiple controller clients to make connections with multiple buggies and control them.</t>
   </si>
 </sst>
 </file>
@@ -822,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A25:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,7 +809,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -863,22 +832,22 @@
     </row>
     <row r="2" spans="1:8" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G2" s="6">
         <v>44201</v>
@@ -887,22 +856,22 @@
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G3" s="5">
         <v>44201</v>
@@ -910,22 +879,22 @@
     </row>
     <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G4" s="5">
         <v>44201</v>
@@ -933,22 +902,22 @@
     </row>
     <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G5" s="5">
         <v>44201</v>
@@ -956,22 +925,22 @@
     </row>
     <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G6" s="5">
         <v>44201</v>
@@ -979,22 +948,22 @@
     </row>
     <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G7" s="5">
         <v>44201</v>
@@ -1002,22 +971,22 @@
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G8" s="5">
         <v>44201</v>
@@ -1025,256 +994,284 @@
     </row>
     <row r="9" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+    <row r="25" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+    <row r="26" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1287,151 +1284,104 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="C31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>14</v>
-      </c>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>16</v>
-      </c>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>18</v>
-      </c>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="C34" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>21</v>
-      </c>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>22</v>
-      </c>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="C36" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>24</v>
-      </c>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C37" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>26</v>
-      </c>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>11</v>
-      </c>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E46" s="4"/>
-      <c r="H46" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E47" s="4"/>
-      <c r="H47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E48" s="4"/>
-      <c r="H48" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="5:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E49" s="4"/>
-      <c r="H49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="5:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E58" s="4"/>
     </row>
   </sheetData>

--- a/Documentation/Testing V2.xlsx
+++ b/Documentation/Testing V2.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zed\Desktop\SOFT564Z-CW\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A756F959-220A-4220-8079-4F4BF6862FE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26C2AC2-189A-44D9-B358-0342079FA296}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="121">
   <si>
     <t>Unit</t>
   </si>
@@ -315,9 +324,6 @@
     <t>Tests whether pressing the motion keys is "Ignored" when not in manual mode.</t>
   </si>
   <si>
-    <t>Use should not be able tomove the buggy by pressing the keys when manual interaction mode is not selected.</t>
-  </si>
-  <si>
     <t>Requesting Environmental information in manual mode</t>
   </si>
   <si>
@@ -419,12 +425,130 @@
   <si>
     <t>System allows multiple controller clients to make connections with multiple buggies and control them.</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. pass
+2. pass
+3. pass
+4. pass
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOTE: The Buggy status does not display disconnected when server disconnection occurs.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful Connection - Pass
+Buggy Used - Pass
+Did Not Select Buggy - Pass
+</t>
+  </si>
+  <si>
+    <t>The following are enabled only in the buggy controls:
+buggy connect button
+buggy status textbox
+available clients listbox</t>
+  </si>
+  <si>
+    <t>Tests whether the buggy will try to automatically reconnect to the server if it disconnects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buggy will automatically try to reconnect to the server upon disconnecting </t>
+  </si>
+  <si>
+    <t>Arduino Mega Power Failure</t>
+  </si>
+  <si>
+    <t>ESP32 Power Failure</t>
+  </si>
+  <si>
+    <t>Funationality of the buggy will be unaffected.</t>
+  </si>
+  <si>
+    <t>Tests whether the buggy will function correctly if the Arduino Mega is powered off and then powered again while being connected to the server.</t>
+  </si>
+  <si>
+    <t>Tests whether the buggy will funtion correctly if the ESP32 is powered off and then powered again.</t>
+  </si>
+  <si>
+    <t>Funtionality of the buggy will be unaffected. The buggy will reconnect to the server and it should be possible to connect to the buggy again.</t>
+  </si>
+  <si>
+    <t>ESP32 no longer recognises requests sent from Arduino Mega and therefore functionality is limited as Arduino Mega cannot be configured by the controller client.</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Possible to connect to the buggy after disconnection and reconnection of the buggy to the server.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note: The controller client does not know that the connection has been lost with the buggy until the user tries to trigger some action involving the buggy that requires connection. Only then the GUI enables/disabled the appropriate button etc.</t>
+    </r>
+  </si>
+  <si>
+    <t>User should not be able tomove the buggy by pressing the keys when manual interaction mode is not selected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motion not triggered by key presses when not I manual mode
+</t>
+  </si>
+  <si>
+    <t>Data is sent back to the controller client.</t>
+  </si>
+  <si>
+    <t>Current configuration parameter was sent to the controller client and displayed.</t>
+  </si>
+  <si>
+    <t>All options can be updated and OK message is displayed when the update was done.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuration parameters for each option were displayed successfully </t>
+  </si>
+  <si>
+    <t>Upon one client disconnecting from the buggy, the other controller client is able to connect to the buggy and use it.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Buggy automatically reconnects to the server.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note: When the buggy disconnects and reconnects, there is a delay in the server discovering that the buggy disconnected and the old endpoint of the buggy remains for some time while a new one is created for the same buggy. This makes it seem that there are two buggies until the server removes the old endpoint and sends a request to all the other controller clients to remove the old endpoint from ther available clients list.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,6 +560,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -482,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -496,7 +628,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -508,6 +639,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -791,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A25:D27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,17 +941,17 @@
     <col min="2" max="2" width="22.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="70.5703125" customWidth="1"/>
     <col min="4" max="4" width="42.85546875" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -820,13 +960,13 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
@@ -849,7 +989,7 @@
       <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>44201</v>
       </c>
       <c r="H2" s="4"/>
@@ -867,10 +1007,10 @@
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="5">
@@ -916,7 +1056,7 @@
       <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="5">
@@ -927,7 +1067,7 @@
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -939,7 +1079,7 @@
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="5">
@@ -985,14 +1125,14 @@
       <c r="E8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="5">
         <v>44201</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
@@ -1004,6 +1144,15 @@
       </c>
       <c r="D9" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="5">
+        <v>44209</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -1019,8 +1168,17 @@
       <c r="D10" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="E10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="5">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>40</v>
       </c>
@@ -1032,6 +1190,15 @@
       </c>
       <c r="D11" s="3" t="s">
         <v>44</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="5">
+        <v>44209</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -1047,6 +1214,15 @@
       <c r="D12" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="E12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5">
+        <v>44209</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1061,6 +1237,15 @@
       <c r="D13" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="E13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="5">
+        <v>44209</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -1075,6 +1260,15 @@
       <c r="D14" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="E14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="5">
+        <v>44209</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1089,6 +1283,15 @@
       <c r="D15" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="E15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="5">
+        <v>44209</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -1103,8 +1306,17 @@
       <c r="D16" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+      <c r="E16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="5">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="315" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>63</v>
       </c>
@@ -1120,8 +1332,14 @@
       <c r="E17" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="5">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>67</v>
       </c>
@@ -1132,164 +1350,276 @@
         <v>68</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="5">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="5">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="5">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="5">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="B22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="5">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="5">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="5">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="5">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="5">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="5">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1307,82 +1637,82 @@
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="4"/>
+      <c r="E35" s="3"/>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="4"/>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="4"/>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="4"/>
+      <c r="E38" s="3"/>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E39" s="4"/>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E40" s="4"/>
+      <c r="E40" s="3"/>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E41" s="4"/>
+      <c r="E41" s="3"/>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E42" s="4"/>
+      <c r="E42" s="3"/>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E43" s="4"/>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E44" s="4"/>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E45" s="4"/>
+      <c r="E45" s="3"/>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E46" s="4"/>
+      <c r="E46" s="3"/>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E47" s="4"/>
+      <c r="E47" s="3"/>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E48" s="4"/>
+      <c r="E48" s="3"/>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E49" s="4"/>
+      <c r="E49" s="3"/>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E50" s="4"/>
+      <c r="E50" s="3"/>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E51" s="4"/>
+      <c r="E51" s="3"/>
     </row>
     <row r="52" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E52" s="4"/>
+      <c r="E52" s="3"/>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E53" s="4"/>
+      <c r="E53" s="3"/>
     </row>
     <row r="54" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E54" s="4"/>
+      <c r="E54" s="3"/>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E55" s="4"/>
+      <c r="E55" s="3"/>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E56" s="4"/>
+      <c r="E56" s="3"/>
     </row>
     <row r="57" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E57" s="4"/>
+      <c r="E57" s="3"/>
     </row>
     <row r="58" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E58" s="4"/>
+      <c r="E58" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Testing V2.xlsx
+++ b/Documentation/Testing V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zed\Desktop\SOFT564Z-CW\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26C2AC2-189A-44D9-B358-0342079FA296}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09698016-29F5-4EB1-BEEB-6B51B43E70AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="121">
   <si>
     <t>Unit</t>
   </si>
@@ -931,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,7 +1543,15 @@
       <c r="D27" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="5">
+        <v>44210</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">

--- a/Documentation/Testing V2.xlsx
+++ b/Documentation/Testing V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zed\Desktop\SOFT564Z-CW\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09698016-29F5-4EB1-BEEB-6B51B43E70AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12B2C07-B4C1-4B5F-A5AC-76B7E57C2DA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="123">
   <si>
     <t>Unit</t>
   </si>
@@ -394,20 +394,6 @@
     <t>Autonomous Mode buggy movement algorithm</t>
   </si>
   <si>
-    <t>Tests whether the buggy will detect obstacles using the ultrasonic module and attempt to make a decision on which way to go to avoid the obstacle. There are a few factors that affect the buggy's decision on which way to go.
-1. The buggy looks both ways to see if the left or right side is blocked and the buggy will go in the direction that is not blocked. If both sides are blocked the buggy will reverse and turn left.
-2. If one of the sides is blocked, the buggy will choose to go the other way.
-3. if both sides are free, the side that has higher light intensity will be chosen by the buggy.
-4. If light intensity is equal, and there is no obstacle on either left or right side, the buggy will choose the left side by default.</t>
-  </si>
-  <si>
-    <t>Obstacle in front of buggy - Buggy will turn the ultrasonic module left and right to see if there are any obstacles
-Obstacle to the left and right - Buggy reverses and turns left.
-Obstacle on one side - Buggy picks the side that is obstacle free.
-Both sides obstacle free - Buggy picks the side with higher light intensity.
-Both sides obstacle free and equal light intensity - Buggy picks left side by default.</t>
-  </si>
-  <si>
     <t>Controller client disconnecting from buggy and another client connecting to buggy</t>
   </si>
   <si>
@@ -543,12 +529,39 @@
       <t>Note: When the buggy disconnects and reconnects, there is a delay in the server discovering that the buggy disconnected and the old endpoint of the buggy remains for some time while a new one is created for the same buggy. This makes it seem that there are two buggies until the server removes the old endpoint and sends a request to all the other controller clients to remove the old endpoint from ther available clients list.</t>
     </r>
   </si>
+  <si>
+    <t>Tests whether the buggy will detect obstacles using the ultrasonic module and attempt to make a decision on which way to go to avoid the obstacle. There are a few factors that affect the buggy's decision on which way to go.
+1. The buggy looks both ways to see if the left or right side is blocked and the buggy will go in the direction that is not blocked provided that the side has higher light than the other and the difference is large enough. If both sides are blocked the buggy will reverse and turn left.
+2. If one of the sides is blocked, the buggy will choose to go the other way provided that the light intensity is greater and the difference is big enough as dictated by light intensity delta. If that is not the case the buggy will reverse
+3. if both sides are free, the side that has higher light intensity will be chosen by the buggy. The buggy will only go in that direction if the light intensity delta is more or equal than the minimum, otherwise the buggy will reverse.</t>
+  </si>
+  <si>
+    <t>1. result as expected
+2. result as expected
+3. result as expected
+4. result as expected
+5. result as expected
+6. result as expected
+7. result as expected</t>
+  </si>
+  <si>
+    <t>result as expected</t>
+  </si>
+  <si>
+    <t>1. Obstacle in front of buggy - Buggy will turn the ultrasonic module left and right to see if there are any obstacles
+2. Obstacle to the left and right and more light on one side with large intensity - Buggy reverses and turns left.
+3. Obstacles on both sides and same light intensity on both sides - Buggy reverses and turns left.
+4. Obstacle on one side but light intensity is greater on the side with obstacle- Buggy reverses and turns left.
+5. Obstacle on one side and light intensity is greater on the free side- Buggy turns towards that side.
+6.Both sides obstacle free - Buggy picks the side with higher light intensity.
+7. Both sides obstacle free and equal light intensity - Buggy moves forward.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,6 +581,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -614,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -648,6 +667,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -931,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,7 +1168,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>9</v>
@@ -1169,7 +1191,7 @@
         <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>9</v>
@@ -1238,7 +1260,7 @@
         <v>53</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>9</v>
@@ -1350,10 +1372,10 @@
         <v>68</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>9</v>
@@ -1376,7 +1398,7 @@
         <v>72</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>9</v>
@@ -1399,7 +1421,7 @@
         <v>76</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>9</v>
@@ -1422,7 +1444,7 @@
         <v>83</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>9</v>
@@ -1445,7 +1467,7 @@
         <v>82</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>9</v>
@@ -1477,7 +1499,7 @@
         <v>44209</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>90</v>
       </c>
@@ -1490,9 +1512,17 @@
       <c r="D24" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+      <c r="E24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="5">
+        <v>44217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="285" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>90</v>
       </c>
@@ -1500,28 +1530,36 @@
         <v>54</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="5">
+        <v>44217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>9</v>
@@ -1532,19 +1570,19 @@
     </row>
     <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>9</v>
@@ -1561,13 +1599,13 @@
         <v>54</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>9</v>
@@ -1578,22 +1616,22 @@
     </row>
     <row r="29" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G29" s="5">
         <v>44209</v>
@@ -1601,19 +1639,19 @@
     </row>
     <row r="30" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>9</v>
